--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-age.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,247 +380,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -780,9 +780,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -793,7 +801,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -813,399 +821,399 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1213,9 +1221,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -1226,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1246,263 +1262,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1510,7 +1526,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1518,7 +1534,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1526,7 +1542,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1534,7 +1550,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1542,7 +1558,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1550,7 +1566,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1558,7 +1574,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1566,7 +1582,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1574,7 +1590,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1582,7 +1598,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1590,7 +1606,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -1598,7 +1614,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -1606,7 +1622,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1614,7 +1630,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1622,7 +1638,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1630,7 +1646,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1638,7 +1654,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1646,9 +1662,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -1659,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1679,279 +1703,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1959,7 +1983,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1967,7 +1991,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1975,7 +1999,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1983,7 +2007,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1991,7 +2015,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1999,7 +2023,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2007,7 +2031,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2015,7 +2039,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2023,7 +2047,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2031,7 +2055,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2039,7 +2063,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2047,7 +2071,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2055,7 +2079,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2063,7 +2087,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2071,7 +2095,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2079,9 +2103,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -2092,7 +2124,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2112,295 +2144,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2408,7 +2440,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2416,7 +2448,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2424,7 +2456,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2432,7 +2464,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2440,7 +2472,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2448,7 +2480,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2456,7 +2488,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2464,7 +2496,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2472,7 +2504,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2480,7 +2512,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2488,7 +2520,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2496,7 +2528,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2504,7 +2536,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2512,9 +2544,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -2525,7 +2565,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2545,303 +2585,303 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2849,7 +2889,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2857,7 +2897,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2865,7 +2905,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2873,7 +2913,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2881,7 +2921,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2889,7 +2929,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2897,7 +2937,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2905,7 +2945,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2913,7 +2953,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2921,7 +2961,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2929,7 +2969,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2937,7 +2977,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2945,9 +2985,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -2958,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2978,319 +3026,319 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3298,7 +3346,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3306,7 +3354,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3314,7 +3362,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3322,7 +3370,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3330,7 +3378,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3338,7 +3386,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3346,7 +3394,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3354,7 +3402,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3362,7 +3410,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3370,7 +3418,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3378,9 +3426,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -3391,7 +3447,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3411,327 +3467,327 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3739,7 +3795,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3747,7 +3803,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3755,7 +3811,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3763,7 +3819,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3771,7 +3827,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3779,7 +3835,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3787,7 +3843,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3795,7 +3851,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3803,7 +3859,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3811,9 +3867,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -3824,7 +3888,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3844,343 +3908,343 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4188,7 +4252,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4196,7 +4260,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4204,7 +4268,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4212,7 +4276,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4220,7 +4284,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4228,7 +4292,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -4236,7 +4300,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -4244,9 +4308,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -4257,7 +4329,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4277,367 +4349,367 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4645,7 +4717,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4653,7 +4725,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4661,7 +4733,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -4669,7 +4741,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -4677,9 +4749,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-age.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -543,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -551,7 +551,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -567,7 +567,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -583,7 +583,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -591,7 +591,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -607,7 +607,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -623,7 +623,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -631,7 +631,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -639,7 +639,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -912,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -928,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -968,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -984,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1000,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1032,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -1040,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -1056,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -1088,7 +1088,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1096,7 +1096,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1104,7 +1104,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1120,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -1136,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -1160,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -1192,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -1200,7 +1200,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -1208,7 +1208,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1297,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1321,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1329,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -1353,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1361,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -1369,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -1377,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1393,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1401,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -1409,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1417,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1425,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -1433,7 +1433,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1441,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1449,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1465,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -1481,7 +1481,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -1489,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -1497,7 +1497,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -1505,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1513,7 +1513,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1521,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -1529,7 +1529,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1778,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1802,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1818,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -1826,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -1834,7 +1834,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1842,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -1850,7 +1850,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -1858,7 +1858,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -1866,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -1874,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -1882,7 +1882,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1890,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1898,7 +1898,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -1906,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1914,7 +1914,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1922,7 +1922,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1930,7 +1930,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -1938,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1946,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -1954,7 +1954,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1962,7 +1962,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1970,7 +1970,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1978,7 +1978,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -1986,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2163,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2171,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -2179,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -2187,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -2203,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -2211,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2219,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -2235,7 +2235,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -2251,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -2259,7 +2259,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -2267,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2275,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -2283,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -2291,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -2299,7 +2299,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -2307,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -2323,7 +2323,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -2331,7 +2331,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -2339,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -2347,7 +2347,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -2355,7 +2355,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -2363,7 +2363,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -2371,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -2379,7 +2379,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -2387,7 +2387,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -2395,7 +2395,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -2403,7 +2403,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -2411,7 +2411,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -2419,7 +2419,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -2427,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2435,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2612,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -2628,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -2636,7 +2636,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -2644,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -2652,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -2668,7 +2668,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -2676,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2684,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -2692,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2700,7 +2700,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -2708,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -2716,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -2724,7 +2724,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -2732,7 +2732,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -2740,7 +2740,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -2748,7 +2748,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -2756,7 +2756,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -2764,7 +2764,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -2772,7 +2772,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -2780,7 +2780,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -2788,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -2796,7 +2796,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -2812,7 +2812,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -2820,7 +2820,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -2828,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -2836,7 +2836,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -2844,7 +2844,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -2852,7 +2852,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -2860,7 +2860,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -2868,7 +2868,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -2884,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3045,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -3069,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -3077,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -3085,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -3093,7 +3093,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3101,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -3109,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -3117,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -3125,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -3133,7 +3133,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -3141,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -3149,7 +3149,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -3157,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -3181,7 +3181,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -3189,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -3197,7 +3197,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -3205,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -3213,7 +3213,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -3221,7 +3221,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -3237,7 +3237,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -3245,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -3253,7 +3253,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -3261,7 +3261,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -3325,7 +3325,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -3333,7 +3333,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3486,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -3502,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -3510,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -3518,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -3526,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3542,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -3550,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -3558,7 +3558,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -3566,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -3574,7 +3574,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3582,7 +3582,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -3590,7 +3590,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -3598,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -3606,7 +3606,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -3614,7 +3614,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -3622,7 +3622,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -3630,7 +3630,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -3638,7 +3638,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -3646,7 +3646,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3654,7 +3654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -3670,7 +3670,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -3678,7 +3678,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -3686,7 +3686,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -3710,7 +3710,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -3718,7 +3718,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -3758,7 +3758,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -3766,7 +3766,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -3774,7 +3774,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -3790,7 +3790,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -3927,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -3975,7 +3975,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -3983,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -4007,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -4015,7 +4015,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -4023,7 +4023,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -4031,7 +4031,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -4039,7 +4039,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -4047,7 +4047,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -4055,7 +4055,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -4063,7 +4063,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -4071,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -4079,7 +4079,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -4087,7 +4087,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -4095,7 +4095,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -4103,7 +4103,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -4111,7 +4111,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4119,7 +4119,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -4127,7 +4127,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -4135,7 +4135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -4143,7 +4143,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -4151,7 +4151,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -4159,7 +4159,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -4175,7 +4175,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -4183,7 +4183,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -4191,7 +4191,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -4199,7 +4199,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -4207,7 +4207,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -4215,7 +4215,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -4223,7 +4223,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -4231,7 +4231,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -4239,7 +4239,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -4247,7 +4247,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -4368,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -4376,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -4384,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -4392,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -4440,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -4448,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -4456,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -4472,7 +4472,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -4480,7 +4480,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -4488,7 +4488,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -4496,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -4504,7 +4504,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -4512,7 +4512,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -4520,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -4528,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -4536,7 +4536,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -4544,7 +4544,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -4552,7 +4552,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -4560,7 +4560,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -4568,7 +4568,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -4576,7 +4576,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -4584,7 +4584,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -4592,7 +4592,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -4600,7 +4600,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -4608,7 +4608,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -4616,7 +4616,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -4624,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -4632,7 +4632,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -4640,7 +4640,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -4648,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -4656,7 +4656,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -4664,7 +4664,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -4672,7 +4672,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -4680,7 +4680,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -4688,7 +4688,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -4696,7 +4696,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -4704,7 +4704,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -4712,7 +4712,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
